--- a/t_rufolavatus/Tachybaptus rufolavatus.xlsx
+++ b/t_rufolavatus/Tachybaptus rufolavatus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophliedtke/Documents/git_projects/extinct/t_rufolavatus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39294468-5247-BC47-B458-609CB6EF35C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20C02B0-EBA6-8D46-A060-7BA5BC87EFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="760" windowWidth="20840" windowHeight="14880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7500" yWindow="760" windowWidth="20840" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Threats" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Results" sheetId="10" r:id="rId5"/>
     <sheet name="export" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1765,7 +1765,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.12999999999999995</c:v>
+                    <c:v>4.3250000000000011E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1777,7 +1777,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.10999999999999999</c:v>
+                    <c:v>4.225000000000001E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1850,7 +1850,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.36</c:v>
+                  <c:v>0.89724999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2556,8 +2556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2677,13 +2677,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="86">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="C12" s="86">
-        <v>0.6</v>
+        <v>0.97</v>
       </c>
       <c r="D12" s="86">
-        <v>0.7</v>
+        <v>0.99</v>
       </c>
       <c r="E12" s="45" t="s">
         <v>55</v>
@@ -2694,13 +2694,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="86">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="C13" s="86">
-        <v>0.6</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="D13" s="86">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="E13" s="45" t="s">
         <v>56</v>
@@ -4454,7 +4454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -7039,15 +7039,15 @@
       </c>
       <c r="C4" s="51">
         <f>Threats!B12*Threats!B13</f>
-        <v>0.25</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="D4" s="51">
         <f>Threats!C12*Threats!C13</f>
-        <v>0.36</v>
+        <v>0.89724999999999999</v>
       </c>
       <c r="E4" s="51">
         <f>Threats!D12*Threats!D13</f>
-        <v>0.48999999999999994</v>
+        <v>0.9405</v>
       </c>
       <c r="F4" s="94" t="s">
         <v>77</v>
@@ -7088,7 +7088,7 @@
     <row r="10" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D10" s="83">
         <f>AVERAGE(D4:D5)</f>
-        <v>0.36</v>
+        <v>0.89724999999999999</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -7119,19 +7119,19 @@
     <row r="13" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B13" s="69">
         <f>E4-C4</f>
-        <v>0.23999999999999994</v>
+        <v>8.550000000000002E-2</v>
       </c>
       <c r="C13" s="63">
         <f>1/(B13+0.01)</f>
-        <v>4.0000000000000009</v>
+        <v>10.471204188481673</v>
       </c>
       <c r="D13" s="63">
         <f>C13*D4</f>
-        <v>1.4400000000000002</v>
+        <v>9.3952879581151816</v>
       </c>
       <c r="E13" s="70">
         <f>D15/C15</f>
-        <v>1.3846153846153848E-2</v>
+        <v>8.5047393364928892E-2</v>
       </c>
       <c r="G13" s="123"/>
       <c r="H13" s="124"/>
@@ -7172,11 +7172,11 @@
       <c r="B15" s="73"/>
       <c r="C15" s="74">
         <f>SUM(C13:C14)</f>
-        <v>104</v>
+        <v>110.47120418848168</v>
       </c>
       <c r="D15" s="74">
         <f>SUM(D13:D14)</f>
-        <v>1.4400000000000002</v>
+        <v>9.3952879581151816</v>
       </c>
       <c r="E15" s="62"/>
       <c r="G15" s="123"/>
@@ -7218,7 +7218,7 @@
       </c>
       <c r="H17" s="58">
         <f>D4-C4</f>
-        <v>0.10999999999999999</v>
+        <v>4.225000000000001E-2</v>
       </c>
       <c r="I17" s="55">
         <f>$C$8</f>
@@ -7231,19 +7231,19 @@
     <row r="18" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B18" s="79">
         <f>E4-C4</f>
-        <v>0.23999999999999994</v>
+        <v>8.550000000000002E-2</v>
       </c>
       <c r="C18" s="80">
         <f>1-B18</f>
-        <v>0.76</v>
+        <v>0.91449999999999998</v>
       </c>
       <c r="D18" s="80">
         <f>C18*D4</f>
-        <v>0.27360000000000001</v>
+        <v>0.82053512499999992</v>
       </c>
       <c r="E18" s="81">
         <f>D20/C20</f>
-        <v>0.15545454545454546</v>
+        <v>0.42858977539827631</v>
       </c>
       <c r="G18" s="59">
         <f>D5</f>
@@ -7251,7 +7251,7 @@
       </c>
       <c r="H18" s="55">
         <f>D4</f>
-        <v>0.36</v>
+        <v>0.89724999999999999</v>
       </c>
       <c r="I18" s="55">
         <f>$C$8</f>
@@ -7282,7 +7282,7 @@
       </c>
       <c r="H19" s="61">
         <f>E4-D4</f>
-        <v>0.12999999999999995</v>
+        <v>4.3250000000000011E-2</v>
       </c>
       <c r="I19" s="61">
         <v>1.01</v>
@@ -7296,11 +7296,11 @@
       <c r="B20" s="73"/>
       <c r="C20" s="74">
         <f>SUM(C18:C19)</f>
-        <v>1.76</v>
+        <v>1.9144999999999999</v>
       </c>
       <c r="D20" s="74">
         <f>SUM(D18:D19)</f>
-        <v>0.27360000000000001</v>
+        <v>0.82053512499999992</v>
       </c>
       <c r="E20" s="62"/>
     </row>
@@ -7470,23 +7470,23 @@
       </c>
       <c r="G3">
         <f>Threats!B12</f>
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="H3">
         <f>Threats!C12</f>
-        <v>0.6</v>
+        <v>0.97</v>
       </c>
       <c r="I3">
         <f>Threats!D12</f>
-        <v>0.7</v>
+        <v>0.99</v>
       </c>
       <c r="J3">
         <f>Threats!B13</f>
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="K3">
         <f>Threats!C13</f>
-        <v>0.6</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="L3">
         <f>Results!C5</f>
@@ -7502,7 +7502,7 @@
       </c>
       <c r="O3">
         <f>Threats!D13</f>
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="P3">
         <f>MIN(Records!A10:A125)</f>

--- a/t_rufolavatus/Tachybaptus rufolavatus.xlsx
+++ b/t_rufolavatus/Tachybaptus rufolavatus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophliedtke/Documents/git_projects/extinct/t_rufolavatus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/L9HRVWMTX/Documents/extinct/t_rufolavatus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20C02B0-EBA6-8D46-A060-7BA5BC87EFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF984588-4A10-DD48-A5EA-B67AFD602DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="760" windowWidth="20840" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22360" yWindow="1460" windowWidth="27880" windowHeight="19220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Threats" sheetId="5" r:id="rId1"/>
@@ -25,11 +25,8 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1804,7 +1801,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>5.0000000000000001E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1816,7 +1813,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>3.0000000000000001E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1838,7 +1835,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2556,8 +2553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2801,7 +2798,7 @@
   <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C10" sqref="C10:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2965,70 +2962,74 @@
         <v>1929</v>
       </c>
       <c r="B10" s="84">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="C10" s="84">
-        <v>0.97</v>
+        <f>AVERAGE(B10,D10)</f>
+        <v>0.995</v>
       </c>
       <c r="D10" s="84">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="E10" s="84"/>
       <c r="F10" s="85"/>
       <c r="H10" s="25" t="str">
-        <f t="shared" ref="H10:H19" si="0">IF(OR(B10&gt;C10,C10&gt;D10),"pci_lower, pci_best, pci_upper values are not in order",IF(OR(B10&lt;0,B10&gt;1,C10&lt;0,C10&gt;1,D10&lt;0,D10&gt;1),"Probabilities must be between 0 and 1","ok"))</f>
+        <f t="shared" ref="H10" si="0">IF(OR(B10&gt;C10,C10&gt;D10),"pci_lower, pci_best, pci_upper values are not in order",IF(OR(B10&lt;0,B10&gt;1,C10&lt;0,C10&gt;1,D10&lt;0,D10&gt;1),"Probabilities must be between 0 and 1","ok"))</f>
         <v>ok</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="84">
-        <v>1947</v>
+        <v>1960</v>
       </c>
       <c r="B11" s="84">
-        <v>0.1</v>
+        <v>0.95</v>
       </c>
       <c r="C11" s="84">
-        <v>0.2</v>
+        <f t="shared" ref="C11:C20" si="1">AVERAGE(B11,D11)</f>
+        <v>0.97</v>
       </c>
       <c r="D11" s="84">
-        <v>0.4</v>
+        <v>0.99</v>
       </c>
       <c r="E11" s="84"/>
       <c r="F11" s="85"/>
       <c r="H11" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(B11&gt;C11,C11&gt;D11),"pci_lower, pci_best, pci_upper values are not in order",IF(OR(B11&lt;0,B11&gt;1,C11&lt;0,C11&gt;1,D11&lt;0,D11&gt;1),"Probabilities must be between 0 and 1","ok"))</f>
         <v>ok</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="84">
-        <v>1960</v>
+        <v>1963</v>
       </c>
       <c r="B12" s="84">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="C12" s="85">
-        <v>0.97</v>
+        <f t="shared" si="1"/>
+        <v>0.84499999999999997</v>
       </c>
       <c r="D12" s="84">
-        <v>0.99</v>
+        <v>0.94</v>
       </c>
       <c r="E12" s="84"/>
       <c r="F12" s="85"/>
       <c r="H12" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(B12&gt;C12,C12&gt;D12),"pci_lower, pci_best, pci_upper values are not in order",IF(OR(B12&lt;0,B12&gt;1,C12&lt;0,C12&gt;1,D12&lt;0,D12&gt;1),"Probabilities must be between 0 and 1","ok"))</f>
         <v>ok</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="84">
-        <v>1963</v>
+        <v>1969</v>
       </c>
       <c r="B13" s="84">
         <v>0.75</v>
       </c>
       <c r="C13" s="84">
-        <v>0.76</v>
+        <f t="shared" si="1"/>
+        <v>0.84499999999999997</v>
       </c>
       <c r="D13" s="84">
         <v>0.94</v>
@@ -3036,39 +3037,41 @@
       <c r="E13" s="84"/>
       <c r="F13" s="85"/>
       <c r="H13" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(B13&gt;C13,C13&gt;D13),"pci_lower, pci_best, pci_upper values are not in order",IF(OR(B13&lt;0,B13&gt;1,C13&lt;0,C13&gt;1,D13&lt;0,D13&gt;1),"Probabilities must be between 0 and 1","ok"))</f>
         <v>ok</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="84">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="B14" s="84">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="C14" s="84">
-        <v>0.77</v>
+        <f t="shared" si="1"/>
+        <v>0.25</v>
       </c>
       <c r="D14" s="84">
-        <v>0.94</v>
+        <v>0.4</v>
       </c>
       <c r="E14" s="84"/>
       <c r="F14" s="85"/>
       <c r="H14" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(B14&gt;C14,C14&gt;D14),"pci_lower, pci_best, pci_upper values are not in order",IF(OR(B14&lt;0,B14&gt;1,C14&lt;0,C14&gt;1,D14&lt;0,D14&gt;1),"Probabilities must be between 0 and 1","ok"))</f>
         <v>ok</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="84">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="B15" s="84">
         <v>0.1</v>
       </c>
       <c r="C15" s="84">
-        <v>0.3</v>
+        <f t="shared" si="1"/>
+        <v>0.25</v>
       </c>
       <c r="D15" s="84">
         <v>0.4</v>
@@ -3076,38 +3079,40 @@
       <c r="E15" s="84"/>
       <c r="F15" s="85"/>
       <c r="H15" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(B15&gt;C15,C15&gt;D15),"pci_lower, pci_best, pci_upper values are not in order",IF(OR(B15&lt;0,B15&gt;1,C15&lt;0,C15&gt;1,D15&lt;0,D15&gt;1),"Probabilities must be between 0 and 1","ok"))</f>
         <v>ok</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="84">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="B16" s="84">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="C16" s="84">
-        <v>0.3</v>
+        <f t="shared" si="1"/>
+        <v>0.7</v>
       </c>
       <c r="D16" s="84">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="E16" s="84"/>
       <c r="F16" s="84"/>
       <c r="H16" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(B16&gt;C16,C16&gt;D16),"pci_lower, pci_best, pci_upper values are not in order",IF(OR(B16&lt;0,B16&gt;1,C16&lt;0,C16&gt;1,D16&lt;0,D16&gt;1),"Probabilities must be between 0 and 1","ok"))</f>
         <v>ok</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="84">
-        <v>1972</v>
+        <v>1982</v>
       </c>
       <c r="B17" s="84">
         <v>0.6</v>
       </c>
       <c r="C17" s="84">
+        <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
       <c r="D17" s="84">
@@ -3116,19 +3121,20 @@
       <c r="E17" s="84"/>
       <c r="F17" s="84"/>
       <c r="H17" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(B17&gt;C17,C17&gt;D17),"pci_lower, pci_best, pci_upper values are not in order",IF(OR(B17&lt;0,B17&gt;1,C17&lt;0,C17&gt;1,D17&lt;0,D17&gt;1),"Probabilities must be between 0 and 1","ok"))</f>
         <v>ok</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="84">
-        <v>1982</v>
+        <v>1985</v>
       </c>
       <c r="B18" s="84">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="C18" s="84">
-        <v>0.7</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="D18" s="84">
         <v>0.8</v>
@@ -3136,39 +3142,49 @@
       <c r="E18" s="84"/>
       <c r="F18" s="84"/>
       <c r="H18" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(B18&gt;C18,C18&gt;D18),"pci_lower, pci_best, pci_upper values are not in order",IF(OR(B18&lt;0,B18&gt;1,C18&lt;0,C18&gt;1,D18&lt;0,D18&gt;1),"Probabilities must be between 0 and 1","ok"))</f>
         <v>ok</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="84">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B19" s="84">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="C19" s="84">
+        <f t="shared" si="1"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="D19" s="84">
         <v>0.7</v>
-      </c>
-      <c r="D19" s="84">
-        <v>0.8</v>
       </c>
       <c r="E19" s="84"/>
       <c r="F19" s="84"/>
       <c r="H19" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(B19&gt;C19,C19&gt;D19),"pci_lower, pci_best, pci_upper values are not in order",IF(OR(B19&lt;0,B19&gt;1,C19&lt;0,C19&gt;1,D19&lt;0,D19&gt;1),"Probabilities must be between 0 and 1","ok"))</f>
         <v>ok</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="84"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
+      <c r="A20" s="84">
+        <v>1988</v>
+      </c>
+      <c r="B20" s="84">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="84">
+        <f t="shared" si="1"/>
+        <v>0.35</v>
+      </c>
+      <c r="D20" s="84">
+        <v>0.5</v>
+      </c>
       <c r="E20" s="84"/>
       <c r="F20" s="84"/>
       <c r="H20" s="25" t="str">
-        <f t="shared" ref="H20:H74" si="1">IF(OR(B20&gt;C20,C20&gt;D20),"pci_lower, pci_best, pci_upper values are not in order",IF(OR(B20&lt;0,B20&gt;1,C20&lt;0,C20&gt;1,D20&lt;0,D20&gt;1),"Probabilities must be between 0 and 1","ok"))</f>
+        <f>IF(OR(B20&gt;C20,C20&gt;D20),"pci_lower, pci_best, pci_upper values are not in order",IF(OR(B20&lt;0,B20&gt;1,C20&lt;0,C20&gt;1,D20&lt;0,D20&gt;1),"Probabilities must be between 0 and 1","ok"))</f>
         <v>ok</v>
       </c>
     </row>
@@ -3180,7 +3196,7 @@
       <c r="E21" s="84"/>
       <c r="F21" s="84"/>
       <c r="H21" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(B21&gt;C21,C21&gt;D21),"pci_lower, pci_best, pci_upper values are not in order",IF(OR(B21&lt;0,B21&gt;1,C21&lt;0,C21&gt;1,D21&lt;0,D21&gt;1),"Probabilities must be between 0 and 1","ok"))</f>
         <v>ok</v>
       </c>
     </row>
@@ -3192,7 +3208,7 @@
       <c r="E22" s="84"/>
       <c r="F22" s="84"/>
       <c r="H22" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H22:H74" si="2">IF(OR(B22&gt;C22,C22&gt;D22),"pci_lower, pci_best, pci_upper values are not in order",IF(OR(B22&lt;0,B22&gt;1,C22&lt;0,C22&gt;1,D22&lt;0,D22&gt;1),"Probabilities must be between 0 and 1","ok"))</f>
         <v>ok</v>
       </c>
     </row>
@@ -3204,7 +3220,7 @@
       <c r="E23" s="84"/>
       <c r="F23" s="84"/>
       <c r="H23" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3216,7 +3232,7 @@
       <c r="E24" s="84"/>
       <c r="F24" s="84"/>
       <c r="H24" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3228,7 +3244,7 @@
       <c r="E25" s="84"/>
       <c r="F25" s="84"/>
       <c r="H25" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3240,7 +3256,7 @@
       <c r="E26" s="84"/>
       <c r="F26" s="84"/>
       <c r="H26" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3252,7 +3268,7 @@
       <c r="E27" s="84"/>
       <c r="F27" s="84"/>
       <c r="H27" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3264,7 +3280,7 @@
       <c r="E28" s="84"/>
       <c r="F28" s="84"/>
       <c r="H28" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3276,7 +3292,7 @@
       <c r="E29" s="84"/>
       <c r="F29" s="84"/>
       <c r="H29" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3288,7 +3304,7 @@
       <c r="E30" s="84"/>
       <c r="F30" s="84"/>
       <c r="H30" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3300,7 +3316,7 @@
       <c r="E31" s="84"/>
       <c r="F31" s="84"/>
       <c r="H31" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3312,7 +3328,7 @@
       <c r="E32" s="84"/>
       <c r="F32" s="84"/>
       <c r="H32" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3324,7 +3340,7 @@
       <c r="E33" s="84"/>
       <c r="F33" s="84"/>
       <c r="H33" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3336,7 +3352,7 @@
       <c r="E34" s="84"/>
       <c r="F34" s="84"/>
       <c r="H34" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3348,7 +3364,7 @@
       <c r="E35" s="84"/>
       <c r="F35" s="84"/>
       <c r="H35" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3360,7 +3376,7 @@
       <c r="E36" s="84"/>
       <c r="F36" s="84"/>
       <c r="H36" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3372,7 +3388,7 @@
       <c r="E37" s="84"/>
       <c r="F37" s="84"/>
       <c r="H37" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3384,7 +3400,7 @@
       <c r="E38" s="84"/>
       <c r="F38" s="84"/>
       <c r="H38" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3396,7 +3412,7 @@
       <c r="E39" s="84"/>
       <c r="F39" s="84"/>
       <c r="H39" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3408,7 +3424,7 @@
       <c r="E40" s="84"/>
       <c r="F40" s="84"/>
       <c r="H40" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3420,7 +3436,7 @@
       <c r="E41" s="84"/>
       <c r="F41" s="84"/>
       <c r="H41" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3432,7 +3448,7 @@
       <c r="E42" s="84"/>
       <c r="F42" s="84"/>
       <c r="H42" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3444,7 +3460,7 @@
       <c r="E43" s="84"/>
       <c r="F43" s="84"/>
       <c r="H43" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3456,7 +3472,7 @@
       <c r="E44" s="84"/>
       <c r="F44" s="84"/>
       <c r="H44" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3468,7 +3484,7 @@
       <c r="E45" s="84"/>
       <c r="F45" s="84"/>
       <c r="H45" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3480,7 +3496,7 @@
       <c r="E46" s="84"/>
       <c r="F46" s="84"/>
       <c r="H46" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3492,7 +3508,7 @@
       <c r="E47" s="84"/>
       <c r="F47" s="84"/>
       <c r="H47" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3504,7 +3520,7 @@
       <c r="E48" s="84"/>
       <c r="F48" s="84"/>
       <c r="H48" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3516,7 +3532,7 @@
       <c r="E49" s="84"/>
       <c r="F49" s="84"/>
       <c r="H49" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3528,7 +3544,7 @@
       <c r="E50" s="84"/>
       <c r="F50" s="84"/>
       <c r="H50" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3540,7 +3556,7 @@
       <c r="E51" s="84"/>
       <c r="F51" s="84"/>
       <c r="H51" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3552,7 +3568,7 @@
       <c r="E52" s="84"/>
       <c r="F52" s="84"/>
       <c r="H52" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3564,7 +3580,7 @@
       <c r="E53" s="84"/>
       <c r="F53" s="84"/>
       <c r="H53" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3576,7 +3592,7 @@
       <c r="E54" s="84"/>
       <c r="F54" s="84"/>
       <c r="H54" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3588,7 +3604,7 @@
       <c r="E55" s="84"/>
       <c r="F55" s="84"/>
       <c r="H55" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3600,7 +3616,7 @@
       <c r="E56" s="84"/>
       <c r="F56" s="84"/>
       <c r="H56" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3612,7 +3628,7 @@
       <c r="E57" s="84"/>
       <c r="F57" s="84"/>
       <c r="H57" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3624,7 +3640,7 @@
       <c r="E58" s="84"/>
       <c r="F58" s="84"/>
       <c r="H58" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3636,7 +3652,7 @@
       <c r="E59" s="84"/>
       <c r="F59" s="84"/>
       <c r="H59" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3648,7 +3664,7 @@
       <c r="E60" s="84"/>
       <c r="F60" s="84"/>
       <c r="H60" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3660,7 +3676,7 @@
       <c r="E61" s="84"/>
       <c r="F61" s="84"/>
       <c r="H61" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3672,7 +3688,7 @@
       <c r="E62" s="84"/>
       <c r="F62" s="84"/>
       <c r="H62" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3684,7 +3700,7 @@
       <c r="E63" s="84"/>
       <c r="F63" s="84"/>
       <c r="H63" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3696,7 +3712,7 @@
       <c r="E64" s="84"/>
       <c r="F64" s="84"/>
       <c r="H64" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3708,7 +3724,7 @@
       <c r="E65" s="84"/>
       <c r="F65" s="84"/>
       <c r="H65" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3720,7 +3736,7 @@
       <c r="E66" s="84"/>
       <c r="F66" s="84"/>
       <c r="H66" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3732,7 +3748,7 @@
       <c r="E67" s="84"/>
       <c r="F67" s="84"/>
       <c r="H67" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3744,7 +3760,7 @@
       <c r="E68" s="84"/>
       <c r="F68" s="84"/>
       <c r="H68" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3756,7 +3772,7 @@
       <c r="E69" s="84"/>
       <c r="F69" s="84"/>
       <c r="H69" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3768,7 +3784,7 @@
       <c r="E70" s="84"/>
       <c r="F70" s="84"/>
       <c r="H70" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3780,7 +3796,7 @@
       <c r="E71" s="84"/>
       <c r="F71" s="84"/>
       <c r="H71" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3792,7 +3808,7 @@
       <c r="E72" s="84"/>
       <c r="F72" s="84"/>
       <c r="H72" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3804,7 +3820,7 @@
       <c r="E73" s="84"/>
       <c r="F73" s="84"/>
       <c r="H73" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3816,7 +3832,7 @@
       <c r="E74" s="84"/>
       <c r="F74" s="84"/>
       <c r="H74" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ok</v>
       </c>
     </row>
@@ -3828,7 +3844,7 @@
       <c r="E75" s="84"/>
       <c r="F75" s="84"/>
       <c r="H75" s="25" t="str">
-        <f t="shared" ref="H75:H125" si="2">IF(OR(B75&gt;C75,C75&gt;D75),"pci_lower, pci_best, pci_upper values are not in order",IF(OR(B75&lt;0,B75&gt;1,C75&lt;0,C75&gt;1,D75&lt;0,D75&gt;1),"Probabilities must be between 0 and 1","ok"))</f>
+        <f t="shared" ref="H75:H125" si="3">IF(OR(B75&gt;C75,C75&gt;D75),"pci_lower, pci_best, pci_upper values are not in order",IF(OR(B75&lt;0,B75&gt;1,C75&lt;0,C75&gt;1,D75&lt;0,D75&gt;1),"Probabilities must be between 0 and 1","ok"))</f>
         <v>ok</v>
       </c>
     </row>
@@ -3840,7 +3856,7 @@
       <c r="E76" s="84"/>
       <c r="F76" s="84"/>
       <c r="H76" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -3852,7 +3868,7 @@
       <c r="E77" s="84"/>
       <c r="F77" s="84"/>
       <c r="H77" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -3864,7 +3880,7 @@
       <c r="E78" s="84"/>
       <c r="F78" s="84"/>
       <c r="H78" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -3876,7 +3892,7 @@
       <c r="E79" s="84"/>
       <c r="F79" s="84"/>
       <c r="H79" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -3888,7 +3904,7 @@
       <c r="E80" s="84"/>
       <c r="F80" s="84"/>
       <c r="H80" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -3900,7 +3916,7 @@
       <c r="E81" s="84"/>
       <c r="F81" s="84"/>
       <c r="H81" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -3912,7 +3928,7 @@
       <c r="E82" s="84"/>
       <c r="F82" s="84"/>
       <c r="H82" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -3924,7 +3940,7 @@
       <c r="E83" s="84"/>
       <c r="F83" s="84"/>
       <c r="H83" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -3936,7 +3952,7 @@
       <c r="E84" s="84"/>
       <c r="F84" s="84"/>
       <c r="H84" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -3948,7 +3964,7 @@
       <c r="E85" s="84"/>
       <c r="F85" s="84"/>
       <c r="H85" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -3960,7 +3976,7 @@
       <c r="E86" s="84"/>
       <c r="F86" s="84"/>
       <c r="H86" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -3972,7 +3988,7 @@
       <c r="E87" s="84"/>
       <c r="F87" s="84"/>
       <c r="H87" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -3984,7 +4000,7 @@
       <c r="E88" s="84"/>
       <c r="F88" s="84"/>
       <c r="H88" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -3996,7 +4012,7 @@
       <c r="E89" s="84"/>
       <c r="F89" s="84"/>
       <c r="H89" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -4008,7 +4024,7 @@
       <c r="E90" s="84"/>
       <c r="F90" s="84"/>
       <c r="H90" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -4020,7 +4036,7 @@
       <c r="E91" s="84"/>
       <c r="F91" s="84"/>
       <c r="H91" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -4032,7 +4048,7 @@
       <c r="E92" s="84"/>
       <c r="F92" s="84"/>
       <c r="H92" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -4044,7 +4060,7 @@
       <c r="E93" s="84"/>
       <c r="F93" s="84"/>
       <c r="H93" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -4056,7 +4072,7 @@
       <c r="E94" s="84"/>
       <c r="F94" s="84"/>
       <c r="H94" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -4068,7 +4084,7 @@
       <c r="E95" s="84"/>
       <c r="F95" s="84"/>
       <c r="H95" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -4080,7 +4096,7 @@
       <c r="E96" s="84"/>
       <c r="F96" s="84"/>
       <c r="H96" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -4092,7 +4108,7 @@
       <c r="E97" s="84"/>
       <c r="F97" s="84"/>
       <c r="H97" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -4104,7 +4120,7 @@
       <c r="E98" s="84"/>
       <c r="F98" s="84"/>
       <c r="H98" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -4116,7 +4132,7 @@
       <c r="E99" s="84"/>
       <c r="F99" s="84"/>
       <c r="H99" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -4128,7 +4144,7 @@
       <c r="E100" s="84"/>
       <c r="F100" s="84"/>
       <c r="H100" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -4140,7 +4156,7 @@
       <c r="E101" s="84"/>
       <c r="F101" s="84"/>
       <c r="H101" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -4152,7 +4168,7 @@
       <c r="E102" s="84"/>
       <c r="F102" s="84"/>
       <c r="H102" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -4164,7 +4180,7 @@
       <c r="E103" s="84"/>
       <c r="F103" s="84"/>
       <c r="H103" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -4176,7 +4192,7 @@
       <c r="E104" s="84"/>
       <c r="F104" s="84"/>
       <c r="H104" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -4188,7 +4204,7 @@
       <c r="E105" s="84"/>
       <c r="F105" s="84"/>
       <c r="H105" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -4200,7 +4216,7 @@
       <c r="E106" s="84"/>
       <c r="F106" s="84"/>
       <c r="H106" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -4212,7 +4228,7 @@
       <c r="E107" s="84"/>
       <c r="F107" s="84"/>
       <c r="H107" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -4224,7 +4240,7 @@
       <c r="E108" s="84"/>
       <c r="F108" s="84"/>
       <c r="H108" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -4236,7 +4252,7 @@
       <c r="E109" s="84"/>
       <c r="F109" s="84"/>
       <c r="H109" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -4248,7 +4264,7 @@
       <c r="E110" s="84"/>
       <c r="F110" s="84"/>
       <c r="H110" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -4260,7 +4276,7 @@
       <c r="E111" s="84"/>
       <c r="F111" s="84"/>
       <c r="H111" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -4272,7 +4288,7 @@
       <c r="E112" s="84"/>
       <c r="F112" s="84"/>
       <c r="H112" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -4284,7 +4300,7 @@
       <c r="E113" s="84"/>
       <c r="F113" s="84"/>
       <c r="H113" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -4296,7 +4312,7 @@
       <c r="E114" s="84"/>
       <c r="F114" s="84"/>
       <c r="H114" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -4308,7 +4324,7 @@
       <c r="E115" s="84"/>
       <c r="F115" s="84"/>
       <c r="H115" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -4320,7 +4336,7 @@
       <c r="E116" s="84"/>
       <c r="F116" s="84"/>
       <c r="H116" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -4332,7 +4348,7 @@
       <c r="E117" s="84"/>
       <c r="F117" s="84"/>
       <c r="H117" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -4344,7 +4360,7 @@
       <c r="E118" s="84"/>
       <c r="F118" s="84"/>
       <c r="H118" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -4356,7 +4372,7 @@
       <c r="E119" s="84"/>
       <c r="F119" s="84"/>
       <c r="H119" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -4368,7 +4384,7 @@
       <c r="E120" s="84"/>
       <c r="F120" s="84"/>
       <c r="H120" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -4380,7 +4396,7 @@
       <c r="E121" s="84"/>
       <c r="F121" s="84"/>
       <c r="H121" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -4392,7 +4408,7 @@
       <c r="E122" s="84"/>
       <c r="F122" s="84"/>
       <c r="H122" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -4404,7 +4420,7 @@
       <c r="E123" s="84"/>
       <c r="F123" s="84"/>
       <c r="H123" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -4416,7 +4432,7 @@
       <c r="E124" s="84"/>
       <c r="F124" s="84"/>
       <c r="H124" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -4428,7 +4444,7 @@
       <c r="E125" s="84"/>
       <c r="F125" s="84"/>
       <c r="H125" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
     </row>
@@ -4454,8 +4470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4674,7 +4690,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="84">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C12" s="84">
         <v>0.02</v>
@@ -4683,22 +4699,22 @@
         <v>0.05</v>
       </c>
       <c r="E12" s="84">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="F12" s="84">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="G12" s="84">
-        <v>0.95</v>
+        <v>0.6</v>
       </c>
       <c r="H12" s="84">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="I12" s="84">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="J12" s="84">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="K12" s="84"/>
       <c r="L12" s="84"/>
@@ -4762,22 +4778,24 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="84">
-        <v>1986</v>
+        <v>1989</v>
       </c>
       <c r="B15" s="84">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="C15" s="84">
-        <v>0.5</v>
+        <f>AVERAGE(B15,D15)</f>
+        <v>0.875</v>
       </c>
       <c r="D15" s="84">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="E15" s="84">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="F15" s="84">
-        <v>0.8</v>
+        <f>AVERAGE(E15,G15)</f>
+        <v>0.92500000000000004</v>
       </c>
       <c r="G15" s="84">
         <v>0.95</v>
@@ -4786,10 +4804,11 @@
         <v>0.7</v>
       </c>
       <c r="I15" s="84">
+        <f>AVERAGE(H15,J15)</f>
         <v>0.8</v>
       </c>
       <c r="J15" s="84">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="K15" s="84"/>
       <c r="L15" s="84"/>
@@ -4800,22 +4819,24 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="84">
-        <v>1988</v>
+        <v>1990</v>
       </c>
       <c r="B16" s="84">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="C16" s="84">
-        <v>0.5</v>
+        <f t="shared" ref="C16:C25" si="1">AVERAGE(B16,D16)</f>
+        <v>0.875</v>
       </c>
       <c r="D16" s="84">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="E16" s="84">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="F16" s="84">
-        <v>0.8</v>
+        <f t="shared" ref="F16:F25" si="2">AVERAGE(E16,G16)</f>
+        <v>0.92500000000000004</v>
       </c>
       <c r="G16" s="84">
         <v>0.95</v>
@@ -4824,10 +4845,11 @@
         <v>0.7</v>
       </c>
       <c r="I16" s="84">
+        <f t="shared" ref="I16:I25" si="3">AVERAGE(H16,J16)</f>
         <v>0.8</v>
       </c>
       <c r="J16" s="84">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="K16" s="84"/>
       <c r="L16" s="84"/>
@@ -4838,22 +4860,24 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="84">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="B17" s="84">
         <v>0.8</v>
       </c>
       <c r="C17" s="84">
-        <v>0.85</v>
+        <f t="shared" si="1"/>
+        <v>0.875</v>
       </c>
       <c r="D17" s="84">
         <v>0.95</v>
       </c>
       <c r="E17" s="84">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="F17" s="84">
-        <v>0.8</v>
+        <f t="shared" si="2"/>
+        <v>0.92500000000000004</v>
       </c>
       <c r="G17" s="84">
         <v>0.95</v>
@@ -4862,10 +4886,11 @@
         <v>0.7</v>
       </c>
       <c r="I17" s="84">
+        <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
       <c r="J17" s="84">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="K17" s="84"/>
       <c r="L17" s="84"/>
@@ -4876,22 +4901,24 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="84">
-        <v>1999</v>
+        <v>1994</v>
       </c>
       <c r="B18" s="84">
         <v>0.8</v>
       </c>
       <c r="C18" s="84">
-        <v>0.9</v>
+        <f t="shared" si="1"/>
+        <v>0.875</v>
       </c>
       <c r="D18" s="84">
         <v>0.95</v>
       </c>
       <c r="E18" s="84">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="F18" s="84">
-        <v>0.8</v>
+        <f t="shared" si="2"/>
+        <v>0.92500000000000004</v>
       </c>
       <c r="G18" s="84">
         <v>0.95</v>
@@ -4900,10 +4927,11 @@
         <v>0.7</v>
       </c>
       <c r="I18" s="84">
+        <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
       <c r="J18" s="84">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="K18" s="84"/>
       <c r="L18" s="84"/>
@@ -4914,22 +4942,24 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="84">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="B19" s="84">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="C19" s="84">
-        <v>0.8</v>
+        <f t="shared" si="1"/>
+        <v>0.875</v>
       </c>
       <c r="D19" s="84">
+        <v>0.95</v>
+      </c>
+      <c r="E19" s="84">
         <v>0.9</v>
       </c>
-      <c r="E19" s="84">
-        <v>0.7</v>
-      </c>
       <c r="F19" s="84">
-        <v>0.8</v>
+        <f t="shared" si="2"/>
+        <v>0.92500000000000004</v>
       </c>
       <c r="G19" s="84">
         <v>0.95</v>
@@ -4938,10 +4968,11 @@
         <v>0.7</v>
       </c>
       <c r="I19" s="84">
+        <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
       <c r="J19" s="84">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="K19" s="84"/>
       <c r="L19" s="84"/>
@@ -4952,22 +4983,24 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="84">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="B20" s="84">
         <v>0.8</v>
       </c>
       <c r="C20" s="84">
-        <v>0.9</v>
+        <f t="shared" si="1"/>
+        <v>0.875</v>
       </c>
       <c r="D20" s="84">
         <v>0.95</v>
       </c>
       <c r="E20" s="84">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="F20" s="84">
-        <v>0.8</v>
+        <f t="shared" si="2"/>
+        <v>0.92500000000000004</v>
       </c>
       <c r="G20" s="84">
         <v>0.95</v>
@@ -4976,10 +5009,11 @@
         <v>0.7</v>
       </c>
       <c r="I20" s="84">
+        <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
       <c r="J20" s="84">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="K20" s="84"/>
       <c r="L20" s="84"/>
@@ -4990,22 +5024,24 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="84">
-        <v>2009</v>
+        <v>1999</v>
       </c>
       <c r="B21" s="84">
         <v>0.8</v>
       </c>
       <c r="C21" s="84">
-        <v>0.85</v>
+        <f t="shared" si="1"/>
+        <v>0.875</v>
       </c>
       <c r="D21" s="84">
         <v>0.95</v>
       </c>
       <c r="E21" s="84">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="F21" s="84">
-        <v>0.8</v>
+        <f t="shared" si="2"/>
+        <v>0.92500000000000004</v>
       </c>
       <c r="G21" s="84">
         <v>0.95</v>
@@ -5014,10 +5050,11 @@
         <v>0.7</v>
       </c>
       <c r="I21" s="84">
+        <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
       <c r="J21" s="84">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="K21" s="84"/>
       <c r="L21" s="84"/>
@@ -5027,16 +5064,39 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="84"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
+      <c r="A22" s="84">
+        <v>2000</v>
+      </c>
+      <c r="B22" s="84">
+        <v>0.7</v>
+      </c>
+      <c r="C22" s="84">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="D22" s="84">
+        <v>0.9</v>
+      </c>
+      <c r="E22" s="84">
+        <v>0.9</v>
+      </c>
+      <c r="F22" s="84">
+        <f t="shared" si="2"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="G22" s="84">
+        <v>0.95</v>
+      </c>
+      <c r="H22" s="84">
+        <v>0.7</v>
+      </c>
+      <c r="I22" s="84">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="J22" s="84">
+        <v>0.9</v>
+      </c>
       <c r="K22" s="84"/>
       <c r="L22" s="84"/>
       <c r="N22" s="25" t="str">
@@ -5045,16 +5105,39 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="84"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
+      <c r="A23" s="84">
+        <v>2004</v>
+      </c>
+      <c r="B23" s="84">
+        <v>0.8</v>
+      </c>
+      <c r="C23" s="84">
+        <f t="shared" si="1"/>
+        <v>0.875</v>
+      </c>
+      <c r="D23" s="84">
+        <v>0.95</v>
+      </c>
+      <c r="E23" s="84">
+        <v>0.9</v>
+      </c>
+      <c r="F23" s="84">
+        <f t="shared" si="2"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="G23" s="84">
+        <v>0.95</v>
+      </c>
+      <c r="H23" s="84">
+        <v>0.7</v>
+      </c>
+      <c r="I23" s="84">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="J23" s="84">
+        <v>0.9</v>
+      </c>
       <c r="K23" s="84"/>
       <c r="L23" s="84"/>
       <c r="N23" s="25" t="str">
@@ -5063,16 +5146,39 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="84"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
+      <c r="A24" s="84">
+        <v>2009</v>
+      </c>
+      <c r="B24" s="84">
+        <v>0.8</v>
+      </c>
+      <c r="C24" s="84">
+        <f t="shared" si="1"/>
+        <v>0.875</v>
+      </c>
+      <c r="D24" s="84">
+        <v>0.95</v>
+      </c>
+      <c r="E24" s="84">
+        <v>0.9</v>
+      </c>
+      <c r="F24" s="84">
+        <f t="shared" si="2"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="G24" s="84">
+        <v>0.95</v>
+      </c>
+      <c r="H24" s="84">
+        <v>0.7</v>
+      </c>
+      <c r="I24" s="84">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="J24" s="84">
+        <v>0.9</v>
+      </c>
       <c r="K24" s="84"/>
       <c r="L24" s="84"/>
       <c r="N24" s="25" t="str">
@@ -6066,7 +6172,7 @@
       <c r="K79" s="84"/>
       <c r="L79" s="84"/>
       <c r="N79" s="25" t="str">
-        <f t="shared" ref="N79:N125" si="1">IF(OR(H79&gt;I79,I79&gt;J79,E79&gt;F79,F79&gt;G79,B79&gt;C79,C79&gt;D79),"lower bound, best est, upper bound are not in correct order",IF(OR(B79&lt;0,B79&gt;1,C79&lt;0,C79&gt;1,D79&lt;0,D79&gt;1,E79&lt;0,E79&gt;1,F79&lt;0,F79&gt;1,G79&lt;0,G79&gt;1,H79&lt;0,H79&gt;1,I79&lt;0,I79&gt;1,J79&lt;0,J79&gt;1),"Probabilities must be between 0 and 1","ok"))</f>
+        <f t="shared" ref="N79:N125" si="4">IF(OR(H79&gt;I79,I79&gt;J79,E79&gt;F79,F79&gt;G79,B79&gt;C79,C79&gt;D79),"lower bound, best est, upper bound are not in correct order",IF(OR(B79&lt;0,B79&gt;1,C79&lt;0,C79&gt;1,D79&lt;0,D79&gt;1,E79&lt;0,E79&gt;1,F79&lt;0,F79&gt;1,G79&lt;0,G79&gt;1,H79&lt;0,H79&gt;1,I79&lt;0,I79&gt;1,J79&lt;0,J79&gt;1),"Probabilities must be between 0 and 1","ok"))</f>
         <v>ok</v>
       </c>
     </row>
@@ -6084,7 +6190,7 @@
       <c r="K80" s="84"/>
       <c r="L80" s="84"/>
       <c r="N80" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6102,7 +6208,7 @@
       <c r="K81" s="84"/>
       <c r="L81" s="84"/>
       <c r="N81" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6120,7 +6226,7 @@
       <c r="K82" s="84"/>
       <c r="L82" s="84"/>
       <c r="N82" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6138,7 +6244,7 @@
       <c r="K83" s="84"/>
       <c r="L83" s="84"/>
       <c r="N83" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6156,7 +6262,7 @@
       <c r="K84" s="84"/>
       <c r="L84" s="84"/>
       <c r="N84" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6174,7 +6280,7 @@
       <c r="K85" s="84"/>
       <c r="L85" s="84"/>
       <c r="N85" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6192,7 +6298,7 @@
       <c r="K86" s="84"/>
       <c r="L86" s="84"/>
       <c r="N86" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6210,7 +6316,7 @@
       <c r="K87" s="84"/>
       <c r="L87" s="84"/>
       <c r="N87" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6228,7 +6334,7 @@
       <c r="K88" s="84"/>
       <c r="L88" s="84"/>
       <c r="N88" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6246,7 +6352,7 @@
       <c r="K89" s="84"/>
       <c r="L89" s="84"/>
       <c r="N89" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6264,7 +6370,7 @@
       <c r="K90" s="84"/>
       <c r="L90" s="84"/>
       <c r="N90" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6282,7 +6388,7 @@
       <c r="K91" s="84"/>
       <c r="L91" s="84"/>
       <c r="N91" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6300,7 +6406,7 @@
       <c r="K92" s="84"/>
       <c r="L92" s="84"/>
       <c r="N92" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6318,7 +6424,7 @@
       <c r="K93" s="84"/>
       <c r="L93" s="84"/>
       <c r="N93" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6336,7 +6442,7 @@
       <c r="K94" s="84"/>
       <c r="L94" s="84"/>
       <c r="N94" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6354,7 +6460,7 @@
       <c r="K95" s="84"/>
       <c r="L95" s="84"/>
       <c r="N95" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6372,7 +6478,7 @@
       <c r="K96" s="84"/>
       <c r="L96" s="84"/>
       <c r="N96" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6390,7 +6496,7 @@
       <c r="K97" s="84"/>
       <c r="L97" s="84"/>
       <c r="N97" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6408,7 +6514,7 @@
       <c r="K98" s="84"/>
       <c r="L98" s="84"/>
       <c r="N98" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6426,7 +6532,7 @@
       <c r="K99" s="84"/>
       <c r="L99" s="84"/>
       <c r="N99" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6444,7 +6550,7 @@
       <c r="K100" s="84"/>
       <c r="L100" s="84"/>
       <c r="N100" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6462,7 +6568,7 @@
       <c r="K101" s="84"/>
       <c r="L101" s="84"/>
       <c r="N101" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6480,7 +6586,7 @@
       <c r="K102" s="84"/>
       <c r="L102" s="84"/>
       <c r="N102" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6498,7 +6604,7 @@
       <c r="K103" s="84"/>
       <c r="L103" s="84"/>
       <c r="N103" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6516,7 +6622,7 @@
       <c r="K104" s="84"/>
       <c r="L104" s="84"/>
       <c r="N104" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6534,7 +6640,7 @@
       <c r="K105" s="84"/>
       <c r="L105" s="84"/>
       <c r="N105" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6552,7 +6658,7 @@
       <c r="K106" s="84"/>
       <c r="L106" s="84"/>
       <c r="N106" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6570,7 +6676,7 @@
       <c r="K107" s="84"/>
       <c r="L107" s="84"/>
       <c r="N107" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6588,7 +6694,7 @@
       <c r="K108" s="84"/>
       <c r="L108" s="84"/>
       <c r="N108" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6606,7 +6712,7 @@
       <c r="K109" s="84"/>
       <c r="L109" s="84"/>
       <c r="N109" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6624,7 +6730,7 @@
       <c r="K110" s="84"/>
       <c r="L110" s="84"/>
       <c r="N110" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6642,7 +6748,7 @@
       <c r="K111" s="84"/>
       <c r="L111" s="84"/>
       <c r="N111" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6660,7 +6766,7 @@
       <c r="K112" s="84"/>
       <c r="L112" s="84"/>
       <c r="N112" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6678,7 +6784,7 @@
       <c r="K113" s="84"/>
       <c r="L113" s="84"/>
       <c r="N113" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6696,7 +6802,7 @@
       <c r="K114" s="84"/>
       <c r="L114" s="84"/>
       <c r="N114" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6714,7 +6820,7 @@
       <c r="K115" s="84"/>
       <c r="L115" s="84"/>
       <c r="N115" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6732,7 +6838,7 @@
       <c r="K116" s="84"/>
       <c r="L116" s="84"/>
       <c r="N116" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6750,7 +6856,7 @@
       <c r="K117" s="84"/>
       <c r="L117" s="84"/>
       <c r="N117" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6768,7 +6874,7 @@
       <c r="K118" s="84"/>
       <c r="L118" s="84"/>
       <c r="N118" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6786,7 +6892,7 @@
       <c r="K119" s="84"/>
       <c r="L119" s="84"/>
       <c r="N119" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6804,7 +6910,7 @@
       <c r="K120" s="84"/>
       <c r="L120" s="84"/>
       <c r="N120" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6822,7 +6928,7 @@
       <c r="K121" s="84"/>
       <c r="L121" s="84"/>
       <c r="N121" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6840,7 +6946,7 @@
       <c r="K122" s="84"/>
       <c r="L122" s="84"/>
       <c r="N122" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6858,7 +6964,7 @@
       <c r="K123" s="84"/>
       <c r="L123" s="84"/>
       <c r="N123" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6876,7 +6982,7 @@
       <c r="K124" s="84"/>
       <c r="L124" s="84"/>
       <c r="N124" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6894,7 +7000,7 @@
       <c r="K125" s="84"/>
       <c r="L125" s="84"/>
       <c r="N125" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>ok</v>
       </c>
     </row>
@@ -6999,7 +7105,7 @@
   <dimension ref="B2:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7057,9 +7163,15 @@
       <c r="B5" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
+      <c r="C5" s="86">
+        <v>2E-3</v>
+      </c>
+      <c r="D5" s="86">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E5" s="86">
+        <v>0.01</v>
+      </c>
       <c r="F5" s="95" t="s">
         <v>74</v>
       </c>
@@ -7088,7 +7200,7 @@
     <row r="10" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D10" s="83">
         <f>AVERAGE(D4:D5)</f>
-        <v>0.89724999999999999</v>
+        <v>0.451125</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -7131,7 +7243,7 @@
       </c>
       <c r="E13" s="70">
         <f>D15/C15</f>
-        <v>8.5047393364928892E-2</v>
+        <v>0.14650220264317182</v>
       </c>
       <c r="G13" s="123"/>
       <c r="H13" s="124"/>
@@ -7146,15 +7258,15 @@
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="71">
         <f>E5-C5</f>
-        <v>0</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="C14" s="64">
         <f>1/(B14+0.01)</f>
-        <v>100</v>
+        <v>55.55555555555555</v>
       </c>
       <c r="D14" s="64">
         <f>C14*D5</f>
-        <v>0</v>
+        <v>0.27777777777777773</v>
       </c>
       <c r="E14" s="72"/>
       <c r="G14" s="123"/>
@@ -7172,11 +7284,11 @@
       <c r="B15" s="73"/>
       <c r="C15" s="74">
         <f>SUM(C13:C14)</f>
-        <v>110.47120418848168</v>
+        <v>66.026759744037221</v>
       </c>
       <c r="D15" s="74">
         <f>SUM(D13:D14)</f>
-        <v>9.3952879581151816</v>
+        <v>9.6730657358929601</v>
       </c>
       <c r="E15" s="62"/>
       <c r="G15" s="123"/>
@@ -7214,7 +7326,7 @@
       </c>
       <c r="G17" s="57">
         <f>D5-C5</f>
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H17" s="58">
         <f>D4-C4</f>
@@ -7243,11 +7355,11 @@
       </c>
       <c r="E18" s="81">
         <f>D20/C20</f>
-        <v>0.42858977539827631</v>
+        <v>0.43298983739837393</v>
       </c>
       <c r="G18" s="59">
         <f>D5</f>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H18" s="55">
         <f>D4</f>
@@ -7265,20 +7377,20 @@
     <row r="19" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="71">
         <f>E5-C5</f>
-        <v>0</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="C19" s="64">
         <f>1-B19</f>
-        <v>1</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="D19" s="64">
         <f>C19*D5</f>
-        <v>0</v>
+        <v>4.96E-3</v>
       </c>
       <c r="E19" s="72"/>
       <c r="G19" s="60">
         <f>E5-D5</f>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H19" s="61">
         <f>E4-D4</f>
@@ -7296,11 +7408,11 @@
       <c r="B20" s="73"/>
       <c r="C20" s="74">
         <f>SUM(C18:C19)</f>
-        <v>1.9144999999999999</v>
+        <v>1.9064999999999999</v>
       </c>
       <c r="D20" s="74">
         <f>SUM(D18:D19)</f>
-        <v>0.82053512499999992</v>
+        <v>0.82549512499999989</v>
       </c>
       <c r="E20" s="62"/>
     </row>
@@ -7490,15 +7602,15 @@
       </c>
       <c r="L3">
         <f>Results!C5</f>
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="M3">
         <f>Results!D5</f>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="N3">
         <f>Results!E5</f>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O3">
         <f>Threats!D13</f>
@@ -7510,15 +7622,15 @@
       </c>
       <c r="Q3">
         <f>MAX(Records!A10:A125)</f>
-        <v>1985</v>
+        <v>1988</v>
       </c>
       <c r="R3" s="38">
         <f>COUNT(Records!A10:A125)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S3" s="38">
         <f>MIN(Surveys!A15:A125)</f>
-        <v>1986</v>
+        <v>1989</v>
       </c>
       <c r="T3" s="38">
         <f>MAX(Surveys!A15:A125)</f>
@@ -7526,11 +7638,11 @@
       </c>
       <c r="U3">
         <f>COUNT(Surveys!A15:A125)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="V3">
         <f>F3-P3-R3-U3</f>
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
